--- a/list.xlsx
+++ b/list.xlsx
@@ -417,12 +417,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B8" sqref="B2:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="28.109375" customWidth="1"/>
   </cols>
